--- a/01032024  PETICION DE AYUDAS TARJETAS PREPAGO.xlsx
+++ b/01032024  PETICION DE AYUDAS TARJETAS PREPAGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A7EB04-AF25-433A-8613-CB40BA9301AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F8964-CD55-4AB0-9BA8-44632050BE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="468" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="909">
   <si>
     <t>TIPOS DE AYUDA ACOGIDA TEMPORAL</t>
   </si>
@@ -13693,9 +13693,9 @@
   </sheetPr>
   <dimension ref="A1:S356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -13810,71 +13810,53 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="60">
-        <v>50</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>78</v>
-      </c>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="102" t="str">
         <f>IF(A3="TARJETA PREPAGO",(IFERROR(VLOOKUP($C3&amp;" - "&amp;$D3,'Catálogo ayudas'!$A$1:$C$84,3,FALSE),"")),(IFERROR(VLOOKUP($C3&amp;" - "&amp;$D3,'Catálogo ayudas'!$A$1:$C$84,2,FALSE),"")))</f>
-        <v>P/TRANSP-TAX-ATTPTIN</v>
+        <v/>
       </c>
       <c r="F3" s="103" t="str">
         <f ca="1">IFERROR(INDEX(USUARIOS,MATCH($H3,Tabla1[NOMBRE Y APELLIDOS DEL PARTICIPANTE],0),MATCH($F$2,Tabla1[#Headers],0)),"")</f>
-        <v>071001</v>
-      </c>
-      <c r="G3" s="102">
+        <v/>
+      </c>
+      <c r="G3" s="102" t="str">
         <f ca="1">IFERROR(INDEX(USUARIOS,MATCH($H3,Tabla1[NOMBRE Y APELLIDOS DEL PARTICIPANTE],0),MATCH($G$2,Tabla1[#Headers],0)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="I3" s="64">
-        <v>45352</v>
-      </c>
-      <c r="J3" s="64">
-        <v>45382</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="101">
-        <v>241121024</v>
-      </c>
-      <c r="M3" s="101" t="str">
+        <v/>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101" t="e">
         <f>+VLOOKUP(L3,'NO BORRAR'!$D$32:$E$44,2,FALSE)</f>
-        <v>AC PI ACOGIDA 24 (24) AT GASTOS DE BENEFICIARIOS</v>
+        <v>#N/A</v>
       </c>
       <c r="N3" s="106" t="s">
         <v>496</v>
       </c>
       <c r="O3" s="104" t="str">
         <f ca="1">IFERROR(INDEX(USUARIOS,MATCH($H3,Tabla1[NOMBRE Y APELLIDOS DEL PARTICIPANTE],0),MATCH($O$2,Tabla1[#Headers],0)),"")</f>
-        <v>320</v>
-      </c>
-      <c r="P3" s="103">
+        <v/>
+      </c>
+      <c r="P3" s="103" t="str">
         <f ca="1">IFERROR(INDEX(USUARIOS,MATCH($H3,Tabla1[NOMBRE Y APELLIDOS DEL PARTICIPANTE],0),MATCH($P$2,Tabla1[#Headers],0)),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q3" s="103" t="str">
         <f ca="1">IFERROR(INDEX(USUARIOS,MATCH($H3,Tabla1[NOMBRE Y APELLIDOS DEL PARTICIPANTE],0),MATCH($Q$2,Tabla1[#Headers],0)),"")</f>
-        <v>4047000120273955</v>
+        <v/>
       </c>
       <c r="R3" s="103" t="str">
         <f ca="1">IFERROR(INDEX(USUARIOS,MATCH($H3,Tabla1[NOMBRE Y APELLIDOS DEL PARTICIPANTE],0),MATCH($R$2,Tabla1[#Headers],0)),"")</f>
-        <v>9774B55BBE3B01F7</v>
+        <v/>
       </c>
       <c r="S3" s="103" t="str">
         <f ca="1">IFERROR(INDEX(USUARIOS,MATCH($H3,Tabla1[NOMBRE Y APELLIDOS DEL PARTICIPANTE],0),MATCH($S$2,Tabla1[#Headers],0)),"")</f>
-        <v>ANDREA HERNANDEZ</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:19" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
